--- a/XBRLParsing/SQL_Creator.xlsx
+++ b/XBRLParsing/SQL_Creator.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9C362-5DA7-45C2-97A8-9B6E695190DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E505E-0FAC-4639-A6AB-AC6E022AAA3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="3480" windowWidth="21460" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13530" yWindow="6230" windowWidth="21460" windowHeight="14350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
   <si>
     <t>mgmtInvFundName</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Create TABLE Extract_NCEN (</t>
+  </si>
+  <si>
+    <t>sqlFields = ( \</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -260,6 +263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,28 +617,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="40" style="2" customWidth="1"/>
     <col min="9" max="9" width="39.90625" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="10" max="10" width="35.6328125" customWidth="1"/>
+    <col min="11" max="11" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,8 +672,12 @@
         <f>CONCATENATE(A2,"=",IF(B2="TEXT","''",0))</f>
         <v>mgmtInvFundName=''</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="str">
+        <f>CONCATENATE("'",A2,"', \")</f>
+        <v>'mgmtInvFundName', \</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -683,11 +695,15 @@
         <v xml:space="preserve">mgmtInvSeriesId TEXT, </v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J34" si="1">CONCATENATE(A3,"=",IF(B3="TEXT","''",0))</f>
+        <f t="shared" ref="J3:J33" si="1">CONCATENATE(A3,"=",IF(B3="TEXT","''",0))</f>
         <v>mgmtInvSeriesId=''</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K33" si="2">CONCATENATE("'",A3,"', \")</f>
+        <v>'mgmtInvSeriesId', \</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -708,8 +724,12 @@
         <f t="shared" si="1"/>
         <v>mgmtInvLei=''</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>'mgmtInvLei', \</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -730,8 +750,12 @@
         <f t="shared" si="1"/>
         <v>isFirstFilingByFund=''</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>'isFirstFilingByFund', \</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -752,8 +776,12 @@
         <f t="shared" si="1"/>
         <v>numAuthorizedClass=0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>'numAuthorizedClass', \</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -774,8 +802,12 @@
         <f t="shared" si="1"/>
         <v>numAddedClass=0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>'numAddedClass', \</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -796,8 +828,12 @@
         <f t="shared" si="1"/>
         <v>numTerminatedClass=0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>'numTerminatedClass', \</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -818,8 +854,12 @@
         <f t="shared" si="1"/>
         <v>fundType=''</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>'fundType', \</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -840,8 +880,12 @@
         <f t="shared" si="1"/>
         <v>isNonDiversifiedCompany=''</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>'isNonDiversifiedCompany', \</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -862,8 +906,12 @@
         <f t="shared" si="1"/>
         <v>isForeignSubsidiary=''</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>'isForeignSubsidiary', \</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -884,8 +932,12 @@
         <f t="shared" si="1"/>
         <v>isFundSecuritiesLending=''</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>'isFundSecuritiesLending', \</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -906,8 +958,12 @@
         <f t="shared" si="1"/>
         <v>didFundLendSecurities=''</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>'didFundLendSecurities', \</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -928,8 +984,12 @@
         <f t="shared" si="1"/>
         <v>paymentToAgentManagerType=''</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>'paymentToAgentManagerType', \</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -950,8 +1010,12 @@
         <f t="shared" si="1"/>
         <v>avgPortfolioSecuritiesValue=''</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>'avgPortfolioSecuritiesValue', \</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -972,8 +1036,12 @@
         <f t="shared" si="1"/>
         <v>netIncomeSecuritiesLending=''</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>'netIncomeSecuritiesLending', \</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -994,8 +1062,12 @@
         <f t="shared" si="1"/>
         <v>relyOnRuleType=''</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>'relyOnRuleType', \</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1016,8 +1088,12 @@
         <f t="shared" si="1"/>
         <v>isExpenseLimitationInPlace=''</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>'isExpenseLimitationInPlace', \</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1038,8 +1114,12 @@
         <f t="shared" si="1"/>
         <v>isExpenseReducedOrWaived=''</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>'isExpenseReducedOrWaived', \</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1060,8 +1140,12 @@
         <f t="shared" si="1"/>
         <v>isFeesWaivedRecoupable=''</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>'isFeesWaivedRecoupable', \</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1082,8 +1166,12 @@
         <f t="shared" si="1"/>
         <v>isExpenseWaivedRecoupable=''</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>'isExpenseWaivedRecoupable', \</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1104,8 +1192,12 @@
         <f t="shared" si="1"/>
         <v>isTransferAgentHiredOrTerminated=''</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>'isTransferAgentHiredOrTerminated', \</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1126,8 +1218,12 @@
         <f t="shared" si="1"/>
         <v>isPricingServiceHiredOrTerminated=''</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>'isPricingServiceHiredOrTerminated', \</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1148,8 +1244,12 @@
         <f t="shared" si="1"/>
         <v>isCustodianHiredOrTerminated=''</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>'isCustodianHiredOrTerminated', \</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1170,8 +1270,12 @@
         <f t="shared" si="1"/>
         <v>isShareholderServiceHiredTerminated=''</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>'isShareholderServiceHiredTerminated', \</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1192,8 +1296,12 @@
         <f t="shared" si="1"/>
         <v>isAdminHiredOrTerminated=''</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>'isAdminHiredOrTerminated', \</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1214,8 +1322,12 @@
         <f t="shared" si="1"/>
         <v>aggregateCommission=0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>'aggregateCommission', \</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1236,8 +1348,12 @@
         <f t="shared" si="1"/>
         <v>principalAggregatePurchase=0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>'principalAggregatePurchase', \</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1258,8 +1374,12 @@
         <f t="shared" si="1"/>
         <v>isBrokerageResearchPayment=''</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>'isBrokerageResearchPayment', \</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1280,8 +1400,12 @@
         <f t="shared" si="1"/>
         <v>mnthlyAvgNetAssets=0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>'mnthlyAvgNetAssets', \</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1302,8 +1426,12 @@
         <f t="shared" si="1"/>
         <v>hasLineOfCredit=''</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>'hasLineOfCredit', \</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1324,8 +1452,12 @@
         <f t="shared" si="1"/>
         <v>isInterfundBorrowing=''</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v>'isInterfundBorrowing', \</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -1346,11 +1478,19 @@
         <f t="shared" si="1"/>
         <v>isSwingPricing=''</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>'isSwingPricing', \</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I34" t="str">
         <f>CONCATENATE("InsertDate NUMERIC)")</f>
         <v>InsertDate NUMERIC)</v>
+      </c>
+      <c r="K34" t="str">
+        <f>CONCATENATE("'",A34,"')")</f>
+        <v>'')</v>
       </c>
     </row>
   </sheetData>

--- a/XBRLParsing/SQL_Creator.xlsx
+++ b/XBRLParsing/SQL_Creator.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E505E-0FAC-4639-A6AB-AC6E022AAA3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A8909-4938-459C-814A-C7712FEACA7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="6230" windowWidth="21460" windowHeight="14350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11110" yWindow="4500" windowWidth="21460" windowHeight="14350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>mgmtInvFundName</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>sqlFields = ( \</t>
+  </si>
+  <si>
+    <t>dataForFields [ \</t>
+  </si>
+  <si>
+    <t>0]</t>
   </si>
 </sst>
 </file>
@@ -233,12 +239,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -264,6 +276,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,9 +642,10 @@
     <col min="9" max="9" width="39.90625" customWidth="1"/>
     <col min="10" max="10" width="35.6328125" customWidth="1"/>
     <col min="11" max="11" width="33.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
@@ -641,8 +655,11 @@
       <c r="K1" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,8 +693,20 @@
         <f>CONCATENATE("'",A2,"', \")</f>
         <v>'mgmtInvFundName', \</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="str">
+        <f>CONCATENATE(IF(B2="TEXT","''",0),", \")</f>
+        <v>'', \</v>
+      </c>
+      <c r="M2" s="6" t="str">
+        <f>CONCATENATE("(?,")</f>
+        <v>(?,</v>
+      </c>
+      <c r="N2" s="6" t="str">
+        <f>M2</f>
+        <v>(?,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -702,8 +731,20 @@
         <f t="shared" ref="K3:K33" si="2">CONCATENATE("'",A3,"', \")</f>
         <v>'mgmtInvSeriesId', \</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L33" si="3">CONCATENATE(IF(B3="TEXT","''",0),", \")</f>
+        <v>'', \</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE("?,")</f>
+        <v>?,</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(N2,M3)</f>
+        <v>(?,?,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -728,8 +769,20 @@
         <f t="shared" si="2"/>
         <v>'mgmtInvLei', \</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M33" si="4">CONCATENATE("?,")</f>
+        <v>?,</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N33" si="5">CONCATENATE(N3,M4)</f>
+        <v>(?,?,?,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -754,8 +807,20 @@
         <f t="shared" si="2"/>
         <v>'isFirstFilingByFund', \</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -780,8 +845,20 @@
         <f t="shared" si="2"/>
         <v>'numAuthorizedClass', \</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>0, \</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -806,8 +883,20 @@
         <f t="shared" si="2"/>
         <v>'numAddedClass', \</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>0, \</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -832,8 +921,20 @@
         <f t="shared" si="2"/>
         <v>'numTerminatedClass', \</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>0, \</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -858,8 +959,20 @@
         <f t="shared" si="2"/>
         <v>'fundType', \</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -884,8 +997,20 @@
         <f t="shared" si="2"/>
         <v>'isNonDiversifiedCompany', \</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -910,8 +1035,20 @@
         <f t="shared" si="2"/>
         <v>'isForeignSubsidiary', \</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -936,8 +1073,20 @@
         <f t="shared" si="2"/>
         <v>'isFundSecuritiesLending', \</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -962,8 +1111,20 @@
         <f t="shared" si="2"/>
         <v>'didFundLendSecurities', \</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -988,8 +1149,20 @@
         <f t="shared" si="2"/>
         <v>'paymentToAgentManagerType', \</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1014,8 +1187,20 @@
         <f t="shared" si="2"/>
         <v>'avgPortfolioSecuritiesValue', \</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1040,8 +1225,20 @@
         <f t="shared" si="2"/>
         <v>'netIncomeSecuritiesLending', \</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1066,8 +1263,20 @@
         <f t="shared" si="2"/>
         <v>'relyOnRuleType', \</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1092,8 +1301,20 @@
         <f t="shared" si="2"/>
         <v>'isExpenseLimitationInPlace', \</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1118,8 +1339,20 @@
         <f t="shared" si="2"/>
         <v>'isExpenseReducedOrWaived', \</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1144,8 +1377,20 @@
         <f t="shared" si="2"/>
         <v>'isFeesWaivedRecoupable', \</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1170,8 +1415,20 @@
         <f t="shared" si="2"/>
         <v>'isExpenseWaivedRecoupable', \</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1196,8 +1453,20 @@
         <f t="shared" si="2"/>
         <v>'isTransferAgentHiredOrTerminated', \</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1222,8 +1491,20 @@
         <f t="shared" si="2"/>
         <v>'isPricingServiceHiredOrTerminated', \</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1248,8 +1529,20 @@
         <f t="shared" si="2"/>
         <v>'isCustodianHiredOrTerminated', \</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1274,8 +1567,20 @@
         <f t="shared" si="2"/>
         <v>'isShareholderServiceHiredTerminated', \</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1300,8 +1605,20 @@
         <f t="shared" si="2"/>
         <v>'isAdminHiredOrTerminated', \</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1326,8 +1643,20 @@
         <f t="shared" si="2"/>
         <v>'aggregateCommission', \</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>0, \</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1352,8 +1681,20 @@
         <f t="shared" si="2"/>
         <v>'principalAggregatePurchase', \</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v>0, \</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1378,8 +1719,20 @@
         <f t="shared" si="2"/>
         <v>'isBrokerageResearchPayment', \</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1404,8 +1757,20 @@
         <f t="shared" si="2"/>
         <v>'mnthlyAvgNetAssets', \</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>0, \</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1430,8 +1795,20 @@
         <f t="shared" si="2"/>
         <v>'hasLineOfCredit', \</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1456,8 +1833,20 @@
         <f t="shared" si="2"/>
         <v>'isInterfundBorrowing', \</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -1482,8 +1871,20 @@
         <f t="shared" si="2"/>
         <v>'isSwingPricing', \</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" t="str">
+        <f t="shared" si="3"/>
+        <v>'', \</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="4"/>
+        <v>?,</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="5"/>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I34" t="str">
         <f>CONCATENATE("InsertDate NUMERIC)")</f>
         <v>InsertDate NUMERIC)</v>
@@ -1491,6 +1892,17 @@
       <c r="K34" t="str">
         <f>CONCATENATE("'",A34,"')")</f>
         <v>'')</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="6" t="str">
+        <f>CONCATENATE("?)")</f>
+        <v>?)</v>
+      </c>
+      <c r="N34" t="str">
+        <f>CONCATENATE(N33,M34)</f>
+        <v>(?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,?)</v>
       </c>
     </row>
   </sheetData>

--- a/XBRLParsing/SQL_Creator.xlsx
+++ b/XBRLParsing/SQL_Creator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A8909-4938-459C-814A-C7712FEACA7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ADB684-D280-435F-A557-2BDCFD1EC8A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="4500" windowWidth="21460" windowHeight="14350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="830" yWindow="4420" windowWidth="21900" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="2" r:id="rId1"/>
     <sheet name="CT_Extract_NCEN" sheetId="1" r:id="rId2"/>
+    <sheet name="Flat_485BPOS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="88">
   <si>
     <t>mgmtInvFundName</t>
   </si>
@@ -210,13 +211,94 @@
   </si>
   <si>
     <t>0]</t>
+  </si>
+  <si>
+    <t>Acquired Fund Fees and Expenses</t>
+  </si>
+  <si>
+    <t>Other Expenses (as a percentage of Assets):</t>
+  </si>
+  <si>
+    <t>Net Expenses (as a percentage of Assets)</t>
+  </si>
+  <si>
+    <t>Expenses (as a percentage of Assets)</t>
+  </si>
+  <si>
+    <t>Distribution and Service (12b-1) Fees</t>
+  </si>
+  <si>
+    <t>Management Fees (as a percentage of Assets)</t>
+  </si>
+  <si>
+    <t>Fee Waiver or Reimbursement</t>
+  </si>
+  <si>
+    <t>Total annual fund operating expenses</t>
+  </si>
+  <si>
+    <t>Total annual fund operating expenses after expense reimbursement</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>AcquiredFees</t>
+  </si>
+  <si>
+    <t>Dist12b1Fees</t>
+  </si>
+  <si>
+    <t>OtherExp</t>
+  </si>
+  <si>
+    <t>MgmtFees</t>
+  </si>
+  <si>
+    <t>TotExp</t>
+  </si>
+  <si>
+    <t>NetExp</t>
+  </si>
+  <si>
+    <t>FeeWaiver</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>dbField</t>
+  </si>
+  <si>
+    <t>INIT</t>
+  </si>
+  <si>
+    <t>CIKVal</t>
+  </si>
+  <si>
+    <t>REAL,</t>
+  </si>
+  <si>
+    <t>FilingDate</t>
+  </si>
+  <si>
+    <t>TEXT,</t>
+  </si>
+  <si>
+    <t>SeriesNum</t>
+  </si>
+  <si>
+    <t>ClassNum</t>
+  </si>
+  <si>
+    <t>CIKVal,FilingDate,SeriesNum,ClassNum,AcquiredFees,Dist12b1Fees,MgmtFees,OtherExp,TotExp,FeeWaiver,NetExp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +319,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -265,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,6 +365,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -1909,4 +2001,617 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAC4932-2222-4ABC-86CB-D2567BCED5A3}">
+  <dimension ref="B1:F65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="65.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("if Label=='",B2,"': db",C2,"=float(value)")</f>
+        <v>if Label=='Acquired Fund Fees and Expenses': dbAcquiredFees=float(value)</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="0">CONCATENATE("if Label=='",B3,"': db",C3,"=float(value)")</f>
+        <v>if Label=='Other Expenses (as a percentage of Assets):': dbOtherExp=float(value)</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE("if Label=='",B4,"': db",C4,"=float(value)")</f>
+        <v>if Label=='Other expenses': dbOtherExp=float(value)</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>if Label=='Distribution and Service (12b-1) Fees': dbDist12b1Fees=float(value)</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>if Label=='Management Fees (as a percentage of Assets)': dbMgmtFees=float(value)</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>if Label=='Fee Waiver or Reimbursement': dbFeeWaiver=float(value)</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>if Label=='Total annual fund operating expenses': dbTotExp=float(value)</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE("if Label=='",B9,"': db",C9,"=float(value)")</f>
+        <v>if Label=='Expenses (as a percentage of Assets)': dbTotExp=float(value)</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE("if Label=='",B10,"': db",C10,"=float(value)")</f>
+        <v>if Label=='Net Expenses (as a percentage of Assets)': dbNetExp=float(value)</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>if Label=='Total annual fund operating expenses after expense reimbursement': dbNetExp=float(value)</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="str">
+        <f>CONCATENATE("if Label=='",B14,"': dbLabel='",C14,"'")</f>
+        <v>if Label=='Acquired Fund Fees and Expenses': dbLabel='AcquiredFees'</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D23" si="1">CONCATENATE("if Label=='",B15,"': dbLabel='",C15,"'")</f>
+        <v>if Label=='Other Expenses (as a percentage of Assets):': dbLabel='OtherExp'</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Other expenses': dbLabel='OtherExp'</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Distribution and Service (12b-1) Fees': dbLabel='Dist12b1Fees'</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Management Fees (as a percentage of Assets)': dbLabel='MgmtFees'</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Fee Waiver or Reimbursement': dbLabel='FeeWaiver'</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Total annual fund operating expenses': dbLabel='TotExp'</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Expenses (as a percentage of Assets)': dbLabel='TotExp'</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Net Expenses (as a percentage of Assets)': dbLabel='NetExp'</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>if Label=='Total annual fund operating expenses after expense reimbursement': dbLabel='NetExp'</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CONCATENATE("db",C28,"=0")</f>
+        <v>dbAcquiredFees=0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29:D34" si="2">CONCATENATE("db",C29,"=0")</f>
+        <v>dbOtherExp=0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>dbNetExp=0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>dbTotExp=0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>dbDist12b1Fees=0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>dbMgmtFees=0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>dbFeeWaiver=0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="str">
+        <f>CONCATENATE("db",C36,"=''")</f>
+        <v>dbCIKVal=''</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37:D46" si="3">CONCATENATE("db",C37,"=''")</f>
+        <v>dbFilingDate=''</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>dbSeriesNum=''</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>dbClassNum=''</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>dbAcquiredFees=''</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v>dbDist12b1Fees=''</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v>dbMgmtFees=''</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="str">
+        <f>CONCATENATE("db",C43,"=''")</f>
+        <v>dbOtherExp=''</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>dbTotExp=''</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>dbFeeWaiver=''</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
+        <v>dbNetExp=''</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="str">
+        <f>CONCATENATE("if '",C51,"'  in df_pivot : ","db",C51," = ","getattr(row, '",C51,"')")</f>
+        <v>if 'AcquiredFees'  in df_pivot : dbAcquiredFees = getattr(row, 'AcquiredFees')</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" ref="D52:D57" si="4">CONCATENATE("if '",C52,"'  in df_pivot : ","db",C52," = ","getattr(row, '",C52,"')")</f>
+        <v>if 'OtherExp'  in df_pivot : dbOtherExp = getattr(row, 'OtherExp')</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="4"/>
+        <v>if 'NetExp'  in df_pivot : dbNetExp = getattr(row, 'NetExp')</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="4"/>
+        <v>if 'TotExp'  in df_pivot : dbTotExp = getattr(row, 'TotExp')</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="4"/>
+        <v>if 'Dist12b1Fees'  in df_pivot : dbDist12b1Fees = getattr(row, 'Dist12b1Fees')</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="4"/>
+        <v>if 'MgmtFees'  in df_pivot : dbMgmtFees = getattr(row, 'MgmtFees')</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="4"/>
+        <v>if 'FeeWaiver'  in df_pivot : dbFeeWaiver = getattr(row, 'FeeWaiver')</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="str">
+        <f>CONCATENATE("print(dbClassNum, db",C59,")")</f>
+        <v>print(dbClassNum, dbAcquiredFees)</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" ref="D60:D65" si="5">CONCATENATE("print(dbClassNum, db",C60,")")</f>
+        <v>print(dbClassNum, dbOtherExp)</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="5"/>
+        <v>print(dbClassNum, dbNetExp)</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="5"/>
+        <v>print(dbClassNum, dbTotExp)</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="5"/>
+        <v>print(dbClassNum, dbDist12b1Fees)</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="5"/>
+        <v>print(dbClassNum, dbMgmtFees)</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="5"/>
+        <v>print(dbClassNum, dbFeeWaiver)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/XBRLParsing/SQL_Creator.xlsx
+++ b/XBRLParsing/SQL_Creator.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ADB684-D280-435F-A557-2BDCFD1EC8A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A73CF6-B7B7-48F7-A319-C5AED0634CFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="4420" windowWidth="21900" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5410" yWindow="4070" windowWidth="21900" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
   <si>
     <t>mgmtInvFundName</t>
   </si>
@@ -2005,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAC4932-2222-4ABC-86CB-D2567BCED5A3}">
-  <dimension ref="B1:F65"/>
+  <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2610,6 +2610,69 @@
         <v>print(dbClassNum, dbFeeWaiver)</v>
       </c>
     </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="str">
+        <f>CONCATENATE(" db",C67," = numpy.nan_to_num(","db",C67,")")</f>
+        <v xml:space="preserve"> dbAcquiredFees = numpy.nan_to_num(dbAcquiredFees)</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D73" si="6">CONCATENATE(" db",C68," = numpy.nan_to_num(","db",C68,")")</f>
+        <v xml:space="preserve"> dbOtherExp = numpy.nan_to_num(dbOtherExp)</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> dbNetExp = numpy.nan_to_num(dbNetExp)</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> dbTotExp = numpy.nan_to_num(dbTotExp)</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> dbDist12b1Fees = numpy.nan_to_num(dbDist12b1Fees)</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> dbMgmtFees = numpy.nan_to_num(dbMgmtFees)</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> dbFeeWaiver = numpy.nan_to_num(dbFeeWaiver)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
